--- a/Writing/Tables/table3.xlsx
+++ b/Writing/Tables/table3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="10260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,51 +24,380 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>JAP</t>
-  </si>
-  <si>
-    <t>JCCP</t>
-  </si>
-  <si>
-    <t>JEPG</t>
-  </si>
-  <si>
-    <t>JPSP</t>
-  </si>
-  <si>
-    <t>PLOS</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Significant</t>
-  </si>
-  <si>
-    <t>Nonsignificant</t>
-  </si>
-  <si>
-    <t>Journal</t>
-  </si>
-  <si>
-    <t>Total</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+  <si>
+    <r>
+      <t xml:space="preserve">r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= .25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">N </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">N = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>62</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 119</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 50</t>
+    </r>
+  </si>
+  <si>
+    <t>1-\beta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,12 +460,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,164 +749,489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:D10"/>
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.23827780000000001</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.31008619999999998</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.42503200000000002</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.57217189999999996</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.76959619999999995</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.93638770000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.1512</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.98329999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.45910000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.77929999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.9778</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.57169999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.2077</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.65869999999999995</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.94820000000000004</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.38969999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.71940000000000004</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.251</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.43359999999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.9899</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>30920</v>
-      </c>
-      <c r="C2" s="1">
-        <v>24584</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>9162</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6591</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>11240</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8455</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2785</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>20083</v>
-      </c>
-      <c r="C5" s="1">
-        <v>15672</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>17283</v>
-      </c>
-      <c r="C6" s="1">
-        <v>12706</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4577</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>91791</v>
-      </c>
-      <c r="C7" s="1">
-        <v>69836</v>
-      </c>
-      <c r="D7" s="1">
-        <v>21955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>28440</v>
-      </c>
-      <c r="C8" s="1">
-        <v>19643</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>14023</v>
-      </c>
-      <c r="C9" s="2">
-        <v>10936</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3087</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="1">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4">
-        <f>SUM(B2:B9)</f>
-        <v>222942</v>
-      </c>
-      <c r="C10" s="4">
-        <f>SUM(C2:C9)</f>
-        <v>168423</v>
-      </c>
-      <c r="D10" s="4">
-        <f>SUM(D2:D9)</f>
-        <v>54519</v>
+      <c r="B11" s="1">
+        <v>0.28010000000000002</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.2984</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.52980000000000005</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.57020000000000004</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.3624</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.9798</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.42909999999999998</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.78039999999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.53080000000000005</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.96609999999999996</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.6855</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="M3:O20">
+    <sortCondition descending="1" ref="O3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
